--- a/biology/Zoologie/Aphonopelma_chalcodes/Aphonopelma_chalcodes.xlsx
+++ b/biology/Zoologie/Aphonopelma_chalcodes/Aphonopelma_chalcodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aphonopelma chalcodes, plus communément appelée mygale blonde du désert/ Arizona est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphonopelma chalcodes, plus communément appelée mygale blonde du désert/ Arizona est une espèce d'araignées mygalomorphes de la famille des Theraphosidae
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Arizona, au Nouveau-Mexique et dans le Sud de la Californie[2] Utah.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Arizona, au Nouveau-Mexique et dans le Sud de la Californie Utah.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette mygale vit dans le désert[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mygale vit dans le désert.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette araignée est couverte de poils clairs contrastant fortement avec l'ensemble des pattes et de l'abdomen qui sont foncés[2]. Le corps de la femelle a un diamètre de 49 à 68 mm, celui des mâles de 49 à 61 mm[2].
-Juvénile, le mâle ressemble beaucoup à la femelle, il n'y a d'ailleurs quasiment aucune possibilité de définir visuellement un individu mâle d'un individu femelle, cependant, après la mue imaginale, le dimorphisme est très marqué[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette araignée est couverte de poils clairs contrastant fortement avec l'ensemble des pattes et de l'abdomen qui sont foncés. Le corps de la femelle a un diamètre de 49 à 68 mm, celui des mâles de 49 à 61 mm.
+Juvénile, le mâle ressemble beaucoup à la femelle, il n'y a d'ailleurs quasiment aucune possibilité de définir visuellement un individu mâle d'un individu femelle, cependant, après la mue imaginale, le dimorphisme est très marqué.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1940 : New American tarantulas of the family Aviculariidae. Bulletin of the University of Utah, vol. 30, no 13, p. 1-39 (texte intégral).</t>
         </is>
